--- a/biology/Botanique/Shaker_Mountain_Wild_Forest/Shaker_Mountain_Wild_Forest.xlsx
+++ b/biology/Botanique/Shaker_Mountain_Wild_Forest/Shaker_Mountain_Wild_Forest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Shaker Mountain Wild Forest est une réserve forestière américaine située dans les comtés de Fulton et d'Hamilton, dans l'État de New York. Elle fait partie du parc Adirondack, dans les Adirondacks.
 </t>
